--- a/dataset_temporary version_0227/PV generation dataset/Area for with optimizer.xlsx
+++ b/dataset_temporary version_0227/PV generation dataset/Area for with optimizer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hkustconnect-my.sharepoint.com/personal/lcchanaj_connect_ust_hk/Documents/桌面/FYP Code/dataset_temporary version_0227/PV generation dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="91" documentId="11_AD4DBB64A54DDB1B405E381765D817954F90DF24" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B49AB200-9666-4981-A0EA-ACA2FC5AC05C}"/>
+  <xr:revisionPtr revIDLastSave="92" documentId="11_AD4DBB64A54DDB1B405E381765D817954F90DF24" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04AB03EC-672C-49DF-A85A-E8D3609CD4FD}"/>
   <bookViews>
-    <workbookView xWindow="9180" yWindow="2880" windowWidth="13500" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Location</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -121,9 +121,6 @@
   <si>
     <t>UG Hall3</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UG Hall5</t>
   </si>
   <si>
     <t>UG Hall6</t>
@@ -512,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -703,26 +700,29 @@
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="B24">
+        <v>151.17148800000001</v>
+      </c>
     </row>
     <row r="25" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B25">
-        <v>151.17148800000001</v>
-      </c>
     </row>
     <row r="26" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="B26">
+        <v>189.181872</v>
+      </c>
     </row>
     <row r="27" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B27">
-        <v>189.181872</v>
+        <v>127.91433600000001</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
@@ -730,7 +730,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>127.91433600000001</v>
+        <v>593.05737599999998</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
@@ -738,7 +738,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>593.05737599999998</v>
+        <v>186.05721600000001</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
@@ -746,7 +746,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>186.05721600000001</v>
+        <v>770.64565400000004</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
@@ -754,7 +754,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>770.64565400000004</v>
+        <v>341.104896</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
@@ -762,7 +762,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>341.104896</v>
+        <v>100.780992</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
@@ -770,7 +770,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>100.780992</v>
+        <v>318.57148799999999</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
@@ -778,7 +778,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>318.57148799999999</v>
+        <v>182.81214</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
@@ -786,33 +786,25 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>182.81214</v>
+        <v>455.23511999999999</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B36">
-        <v>455.23511999999999</v>
-      </c>
     </row>
     <row r="37" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="B37">
+        <v>304.68689999999998</v>
+      </c>
     </row>
     <row r="38" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="B38">
-        <v>304.68689999999998</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A39" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/dataset_temporary version_0227/PV generation dataset/Area for with optimizer.xlsx
+++ b/dataset_temporary version_0227/PV generation dataset/Area for with optimizer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hkustconnect-my.sharepoint.com/personal/lcchanaj_connect_ust_hk/Documents/桌面/FYP Code/dataset_temporary version_0227/PV generation dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="92" documentId="11_AD4DBB64A54DDB1B405E381765D817954F90DF24" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04AB03EC-672C-49DF-A85A-E8D3609CD4FD}"/>
+  <xr:revisionPtr revIDLastSave="93" documentId="11_AD4DBB64A54DDB1B405E381765D817954F90DF24" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4FAC94AF-F3A7-4DC5-9F20-3547FE2042F8}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -511,14 +511,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28.625" customWidth="1"/>
-    <col min="2" max="2" width="27.5" customWidth="1"/>
+    <col min="2" max="2" width="30.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
@@ -810,5 +810,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>